--- a/inferences/jesuita-entrada-Coimbra.xlsx
+++ b/inferences/jesuita-entrada-Coimbra.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="jesuita_entrada_Coimbra" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="jesuita_entrada_Coimbra" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>morte</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>extra_info</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -556,6 +561,11 @@
           <t>?</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -618,6 +628,11 @@
           <t>Goa</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,6 +695,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -742,6 +762,11 @@
           <t>Negapatam</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -804,6 +829,11 @@
           <t>Goa</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -866,6 +896,11 @@
           <t>[A caminho do Japão]</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -926,6 +961,11 @@
       <c r="N8" t="inlineStr">
         <is>
           <t>Macau</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -978,6 +1018,11 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1040,6 +1085,11 @@
           <t>[No mar, a caminho de Malaca]</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1102,6 +1152,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1162,6 +1217,11 @@
       <c r="N12" t="inlineStr">
         <is>
           <t>Goa (Colégio Novo)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1214,6 +1274,11 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1276,6 +1341,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1338,6 +1408,11 @@
           <t>Hang-tcheou</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1400,6 +1475,11 @@
           <t>Japão</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1462,6 +1542,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1524,6 +1609,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1586,6 +1676,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1648,6 +1743,11 @@
           <t>Nagasaki</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>{'name': {'original': 'Bx Francisco Pacheco'}}</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1710,6 +1810,11 @@
           <t>Cantão</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1772,6 +1877,11 @@
           <t>Japão</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1834,6 +1944,11 @@
           <t>Edo</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1896,6 +2011,11 @@
           <t>Hangchow</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1958,6 +2078,11 @@
           <t>Nanquim</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2020,6 +2145,11 @@
           <t>Goa</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2082,6 +2212,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2144,6 +2279,11 @@
           <t>Foochow, Fukien</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>{'name': {'original': 'António de Gouvea'}}</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2206,6 +2346,11 @@
           <t>[Perto de Hainan]</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2268,6 +2413,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2330,6 +2480,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2392,6 +2547,11 @@
           <t>Pequim</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2454,6 +2614,11 @@
           <t>Costa da Cochinchina</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2514,6 +2679,11 @@
       <c r="N34" t="inlineStr">
         <is>
           <t>Macau</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2566,6 +2736,11 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2628,6 +2803,11 @@
           <t>Nanquim</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2690,6 +2870,11 @@
           <t>Foochow (Fou-tcheou fou, Fukien)</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2752,6 +2937,11 @@
           <t>[No mar, depois do Cabo da Boa Esperança]</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2814,6 +3004,11 @@
           <t>Pequim</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2874,6 +3069,11 @@
       <c r="N40" t="inlineStr">
         <is>
           <t>Goa</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2918,6 +3118,11 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2980,6 +3185,11 @@
           <t>Nanquim</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3042,6 +3252,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3104,6 +3319,11 @@
           <t>Lisboa</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3166,6 +3386,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3228,6 +3453,11 @@
           <t>Coimbra</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3290,6 +3520,11 @@
           <t>Macau</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3352,6 +3587,11 @@
           <t>Tonquim</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3412,6 +3652,11 @@
       <c r="N49" t="inlineStr">
         <is>
           <t>Macau</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3464,6 +3709,11 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3514,6 +3764,11 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3576,6 +3831,11 @@
           <t>Pequim</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3638,6 +3898,11 @@
           <t>Goa</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3698,6 +3963,11 @@
       <c r="N54" t="inlineStr">
         <is>
           <t>?</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3750,6 +4020,11 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3810,6 +4085,11 @@
       <c r="N56" t="inlineStr">
         <is>
           <t>?</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3862,6 +4142,11 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3924,6 +4209,11 @@
           <t>Castel Gandolfo</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3986,6 +4276,11 @@
           <t>Pequim</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4046,6 +4341,11 @@
       <c r="N60" t="inlineStr">
         <is>
           <t>?</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>{}</t>
         </is>
       </c>
     </row>

--- a/inferences/jesuita-entrada-Coimbra.xlsx
+++ b/inferences/jesuita-entrada-Coimbra.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="jesuita_entrada_Coimbra" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="jesuita_entrada_Coimbra" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
@@ -1221,34 +1221,34 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-gaspar</t>
+          <t>deh-francisco-vieira</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>886</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Manuel Gaspar</t>
+          <t>Francisco Vieira</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1257,53 +1257,65 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>34</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>64</v>
+      </c>
+      <c r="M13" t="n">
+        <v>38</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Macau (colégio)</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-manuel-gaspar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>353</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>Manuel Gaspar</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1558</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1312,65 +1324,53 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>24</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1629</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>71</v>
-      </c>
-      <c r="M14" t="n">
-        <v>46</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Macau</t>
-        </is>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-antonio-de-almeida</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>António de Almeida</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1379,132 +1379,132 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1591</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M15" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Hang-tcheou</t>
+          <t>Shiuchow</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>705</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>1576</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>18</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>1583</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>14</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1586</t>
-        </is>
-      </c>
       <c r="J16" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M16" t="n">
         <v>46</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-soeiro</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>694</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>João Soeiro</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1524,54 +1524,54 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M17" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Hang-tcheou</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>deh-diogo-correia-valente</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Diogo Correia Valente</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1580,60 +1580,60 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1586</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-joao-soeiro</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>801</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>João Soeiro</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1647,29 +1647,29 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1586</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1678,24 +1678,24 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pacheco</t>
+          <t>deh-diogo-correia-valente</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Francisco Pacheco</t>
+          <t>Diogo Correia Valente</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1714,65 +1714,65 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M20" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Nagasaki</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>{'name': {'original': 'Bx Francisco Pacheco'}}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>606</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1781,65 +1781,65 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>33</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>47</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1635</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>65</v>
+      </c>
+      <c r="M21" t="n">
         <v>17</v>
       </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1593</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>21</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1649</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>78</v>
-      </c>
-      <c r="M21" t="n">
-        <v>56</v>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Cantão</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-fernandes</t>
+          <t>deh-francisco-pacheco</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>602</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sebastião Fernandes</t>
+          <t>Francisco Pacheco</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1586</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1863,50 +1863,50 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="L22" t="n">
+        <v>57</v>
+      </c>
+      <c r="M22" t="n">
         <v>34</v>
       </c>
-      <c r="M22" t="n">
-        <v>10</v>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Nagasaki</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name', 'original': 'Bx Francisco Pacheco'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-vieira</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>303</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sebastião Vieira</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>1571</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1915,65 +1915,65 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="M23" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Edo</t>
+          <t>Cantão</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-sebastiao-fernandes</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>294</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Sebastião Fernandes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>1573</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>1591</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1982,65 +1982,65 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="M24" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Hangchow</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>deh-feliciano-da-silva</t>
+          <t>deh-sebastiao-vieira</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>888</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Feliciano da Silva</t>
+          <t>Sebastião Vieira</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>1591</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2049,65 +2049,65 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M25" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Edo</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-andrade</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>254</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>António de Andrade</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2116,65 +2116,65 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M26" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>Hangchow</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-feliciano-da-silva</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>772</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Feliciano da Silva</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2183,65 +2183,65 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="M27" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-antonio-de-andrade</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>António de Gouveia</t>
+          <t>António de Andrade</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1580</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2250,65 +2250,65 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="M28" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Foochow, Fukien</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>{'name': {'original': 'António de Gouvea'}}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2317,65 +2317,65 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="M29" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>[Perto de Hainan]</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>381</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>António de Gouveia</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2384,65 +2384,65 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="M30" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Foochow, Fukien</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name', 'original': 'António de Gouvea'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-da-maia</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sebastião da Maia</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2451,132 +2451,132 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M31" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>[Perto de Hainan]</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>deh-gabriel-de-magalhaes</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>342</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gabriel de Magalhães</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>1610</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1625</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Coimbra</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H32" t="n">
         <v>8</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M32" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-sebastiao-da-maia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>510</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Sebastião da Maia</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2585,65 +2585,65 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1637</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="M33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Costa da Cochinchina</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-da-fonseca</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>506</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gonçalo da Fonseca</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2652,65 +2652,65 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
         <v>8</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M34" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Macau</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>deh-adriano-pestana</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>509</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Adriano Pestana</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2719,53 +2719,65 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>25</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1667</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>50</v>
+      </c>
+      <c r="M35" t="n">
+        <v>26</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Costa da Cochinchina</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jorge</t>
+          <t>deh-goncalo-da-fonseca</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>321</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Manuel Jorge</t>
+          <t>Gonçalo da Fonseca</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2777,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2785,54 +2797,54 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M36" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Macau</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-ferrao</t>
+          <t>deh-adriano-pestana</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>631</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>André Ferrão</t>
+          <t>Adriano Pestana</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2841,65 +2853,53 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H37" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1643</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>31</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>1661</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>36</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Foochow (Fou-tcheou fou, Fukien)</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>deh-afonso-aires</t>
+          <t>deh-manuel-jorge</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>420</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Afonso Aires</t>
+          <t>Manuel Jorge</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2908,65 +2908,65 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1643</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>[No mar, depois do Cabo da Boa Esperança]</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-pereira</t>
+          <t>deh-andre-ferrao</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>296</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tomé (Sancho) Pereira</t>
+          <t>André Ferrão</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2978,62 +2978,62 @@
         <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M39" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Pequim</t>
+          <t>Foochow (Fou-tcheou fou, Fukien)</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-carneiro</t>
+          <t>deh-afonso-aires</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>André Carneiro</t>
+          <t>Afonso Aires</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3042,65 +3042,65 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H40" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M40" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Goa</t>
+          <t>[No mar, depois do Cabo da Boa Esperança]</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-silva</t>
+          <t>deh-tome-pereira</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>627</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>João da Silva</t>
+          <t>Tomé (Sancho) Pereira</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3109,45 +3109,65 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>21</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1666</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>20</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1708</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>63</v>
+      </c>
+      <c r="M41" t="n">
+        <v>42</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-da-silva</t>
+          <t>deh-andre-carneiro</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>António da Silva</t>
+          <t>André Carneiro</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3156,10 +3176,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -3167,54 +3187,54 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M42" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Nanquim</t>
+          <t>Goa</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-joao-da-silva</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>777</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>João da Silva</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1673</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3223,65 +3243,45 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>17</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1680</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>24</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1741</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>84</v>
-      </c>
-      <c r="M43" t="n">
-        <v>60</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Macau</t>
-        </is>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-sa</t>
+          <t>deh-antonio-da-silva</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>768</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Manuel de Sá</t>
+          <t>António da Silva</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3290,65 +3290,65 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M44" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lisboa</t>
+          <t>Nanquim</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>545</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1673</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3357,29 +3357,29 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M45" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3388,34 +3388,34 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-manuel-de-sa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>734</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Manuel de Sá</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3424,65 +3424,65 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H46" t="n">
         <v>5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1682</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>1728</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M46" t="n">
         <v>48</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Coimbra</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-osorio-i</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>642</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Manuel Osório</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3494,26 +3494,26 @@
         <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="M47" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3522,34 +3522,34 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>deh-estanislau-machado</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Estanislau Machado</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3558,65 +3558,65 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1682</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M48" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Tonquim</t>
+          <t>Coimbra</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-lopes-junior</t>
+          <t>deh-manuel-osorio-i</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>600</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>António Lopes, júnior</t>
+          <t>Manuel Osório</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1684</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3625,29 +3625,29 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3656,34 +3656,34 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>deh-leonardo-teixeira</t>
+          <t>deh-estanislau-machado</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>501</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Leonardo Teixeira</t>
+          <t>Estanislau Machado</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1667</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3692,53 +3692,65 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>19</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>62</v>
+      </c>
+      <c r="M50" t="n">
+        <v>42</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tonquim</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>deh-estevao-collasco</t>
+          <t>deh-antonio-lopes-junior</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>485</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Estêvão Collasco</t>
+          <t>António Lopes, júnior</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3750,7 +3762,7 @@
         <v>15</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3758,42 +3770,54 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>19</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1699</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>29</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Macau</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-magalhaes</t>
+          <t>deh-leonardo-teixeira</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>836</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>António de Magalhães</t>
+          <t>Leonardo Teixeira</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3809,58 +3833,46 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>19</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>1735</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>57</v>
-      </c>
-      <c r="M52" t="n">
-        <v>38</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>deh-antao-dantas</t>
+          <t>deh-estevao-collasco</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Antão Dantas</t>
+          <t>Estêvão Collasco</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3869,65 +3881,53 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>19</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>1721</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>46</v>
-      </c>
-      <c r="M53" t="n">
-        <v>26</v>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Goa</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-ribeiro-senior</t>
+          <t>deh-antonio-de-magalhaes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>504</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Manuel Ribeiro, sénior</t>
+          <t>António de Magalhães</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3936,22 +3936,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1696</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -3962,39 +3962,39 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Pequim</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-rodrigues</t>
+          <t>deh-antao-dantas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Matias Rodrigues</t>
+          <t>Antão Dantas</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>1674</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4006,50 +4006,62 @@
         <v>18</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>20</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>46</v>
+      </c>
+      <c r="M55" t="n">
+        <v>26</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-melo</t>
+          <t>deh-manuel-ribeiro-senior</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>679</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>António de Melo</t>
+          <t>Manuel Ribeiro, sénior</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4061,26 +4073,26 @@
         <v>17</v>
       </c>
       <c r="H56" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M56" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4089,34 +4101,34 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>deh-luis-de-caldas</t>
+          <t>deh-matias-rodrigues</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>713</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Luís de Caldas</t>
+          <t>Matias Rodrigues</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1675</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4125,18 +4137,18 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -4144,34 +4156,34 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-montanha-ii</t>
+          <t>deh-antonio-de-melo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>539</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>José Montanha</t>
+          <t>António de Melo</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1681</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4180,65 +4192,65 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H58" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1752</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M58" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Castel Gandolfo</t>
+          <t>?</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-gomes</t>
+          <t>deh-luis-de-caldas</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>128</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>António Gomes</t>
+          <t>Luís de Caldas</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4247,105 +4259,227 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>20</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>1751</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>44</v>
-      </c>
-      <c r="M59" t="n">
-        <v>23</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
+          <t>deh-jose-montanha-ii</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>José Montanha</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1708</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>13</v>
+      </c>
+      <c r="H60" t="n">
+        <v>21</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>34</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>56</v>
+      </c>
+      <c r="M60" t="n">
+        <v>22</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Castel Gandolfo</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>deh-antonio-gomes</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>António Gomes</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>18</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>20</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>44</v>
+      </c>
+      <c r="M61" t="n">
+        <v>23</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Pequim</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
           <t>deh-inacio-pires</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>651</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Inácio Pires</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>1724</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1742</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Coimbra</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
         <v>17</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H62" t="n">
         <v>8</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>1750</t>
         </is>
       </c>
-      <c r="J60" t="n">
+      <c r="J62" t="n">
         <v>25</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>1776</t>
         </is>
       </c>
-      <c r="L60" t="n">
+      <c r="L62" t="n">
         <v>51</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M62" t="n">
         <v>26</v>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>{}</t>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
         </is>
       </c>
     </row>

--- a/inferences/jesuita-entrada-Coimbra.xlsx
+++ b/inferences/jesuita-entrada-Coimbra.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>extra_info</t>
+          <t>jesuita-entrada.extra_info</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date', 'comment': 'já é padre'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Domingues &amp; O Neil, IV: 2645. MMHM:p.226', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date', 'comment': 'ou 15600325 ou Coimbra, 25-03-1560 MMHM'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': 'Está no "Catálogo delos Padres y Hermanos dela Provincia de Portugal a 12 de Enero de 1579",Lus. 39 p.3v, nos estudantes de Filosofia do segundo curso', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Schutte, Monumenta historica japoniae I.,p.1180', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '"Catálogo delos Padres y Hermanos dela Provincia de Portugal a 12 de Enero de 1579" Lus. 39, 3v, estudante de filosofia, 1ºcurso', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Em Coimbra no ano de 1582 segundo a Carta Annua de 1623 BA', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 MMHM:p.94 (ARSI Japsin 35 13)', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Segundo Dominguez &amp; O Neil, V.III,p.2961. Franco Imagem...Coimbra,II,4,c.36,p.575', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name', 'original': 'Bx Francisco Pacheco'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '([Schütte, 1975, p. 1321] Sebastião Vieira, nasc Castro de Aire, Lamego, E. Coimbra 3-2-1591', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Segungo Dominguez, J. M., &amp; O’Neill, C. (2001) II, 1113', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': 'Franco, 1717, p. 375, Sweet, 20216, p.27 @wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Dehergne não especifica local, Brockey estudos Filosofia e Teologia em Coimbra', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name', 'original': 'António de Gouvea'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 (Franco, 1719, t.II, p. 612)', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date', 'comment': 'ou 16090502 reentrou em 1611 não se sabe onde'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '[Adicionado a partir de Franco, Imagem...Coimbra, II, 522] @wikidata:Q45412', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date', 'comment': 'MMHM:p.8'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 """Franco, Imagem...Coimbra, v.2 p.616; Barbosa Machado, v.3"""', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': "@wikidata:Q45412 MMHM:p.205 (Sebastian da Maia, da Maya, d'Amaya)", 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Segundo Louis Buglio 1688', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': "@wikidata:Q45412 MMHM:p.203 (Matias d'Amaia), Schutte, Monumenta historica japoniae I.1234", 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'original': '? Segundo Schütte, p.1174'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Ver Brockey, p.230 cit. Carta de A.P. a Viteleschi, de Coimbra, 26 Agosto 1640', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412 Brockey, cap.6 n.95', 'original': '?'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'obs': {'kleio_element_name': 'obs', 'kleio_element_class': 'obs', 'entity_attr_name': 'obs', 'entity_column_class': 'obs'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date', 'comment': 'ou 16630325'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date', 'comment': 'ou 16690519'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date', 'comment': 'ou 16931016 ou 16931021 ou 16930326'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date', 'comment': 'ou 17051224'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>{'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>{'name': {'kleio_element_name': 'nome', 'kleio_element_class': 'name', 'entity_attr_name': 'name', 'entity_column_class': 'name'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}, 'sex': {'kleio_element_name': 'sex', 'kleio_element_class': 'sex', 'entity_attr_name': 'sex', 'entity_column_class': 'sex'}}</t>
+          <t>{'the_type': {'kleio_element_name': 'tipo', 'kleio_element_class': 'type', 'entity_attr_name': 'type', 'entity_column_class': 'type'}, 'the_value': {'kleio_element_name': 'valor', 'kleio_element_class': 'value', 'entity_attr_name': 'value', 'entity_column_class': 'value', 'comment': '@wikidata:Q45412'}, 'id': {'kleio_element_name': 'id', 'kleio_element_class': 'id', 'entity_attr_name': 'id', 'entity_column_class': 'id'}, 'the_date': {'kleio_element_name': 'date', 'kleio_element_class': 'date', 'entity_attr_name': 'date', 'entity_column_class': 'date'}, 'entity': {'kleio_element_name': 'entity', 'kleio_element_class': 'entity', 'entity_attr_name': 'entity', 'entity_column_class': 'entity'}, 'class': {'kleio_element_name': 'class', 'kleio_element_class': 'class', 'entity_attr_name': 'class', 'entity_column_class': 'class'}}</t>
         </is>
       </c>
     </row>
